--- a/Big Bang/Batch Upload/Teacher/Class List (GCAT) (with validation).xlsx
+++ b/Big Bang/Batch Upload/Teacher/Class List (GCAT) (with validation).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
   <si>
     <t>School</t>
   </si>
@@ -43,13 +43,214 @@
   </si>
   <si>
     <t>Middle_initial</t>
+  </si>
+  <si>
+    <t>PUP</t>
+  </si>
+  <si>
+    <t>TUP</t>
+  </si>
+  <si>
+    <t>BatStateU</t>
+  </si>
+  <si>
+    <t>CvSU</t>
+  </si>
+  <si>
+    <t>TarSU</t>
+  </si>
+  <si>
+    <t>DMMMSU</t>
+  </si>
+  <si>
+    <t>PangSu</t>
+  </si>
+  <si>
+    <t>BengSU</t>
+  </si>
+  <si>
+    <t>BulSU</t>
+  </si>
+  <si>
+    <t>USEP</t>
+  </si>
+  <si>
+    <t>WVCST</t>
+  </si>
+  <si>
+    <t>WVSU</t>
+  </si>
+  <si>
+    <t>NorSU</t>
+  </si>
+  <si>
+    <t>CHMSC</t>
+  </si>
+  <si>
+    <t>NIPSC</t>
+  </si>
+  <si>
+    <t>LSPU-Sta Cruz</t>
+  </si>
+  <si>
+    <t>LSPU-San Pablo</t>
+  </si>
+  <si>
+    <t>LSPU-Los Banos</t>
+  </si>
+  <si>
+    <t>LSPU-Siniloan</t>
+  </si>
+  <si>
+    <t>BatStateU-Main I</t>
+  </si>
+  <si>
+    <t>BatStateU-Main II</t>
+  </si>
+  <si>
+    <t>BatStateU-Balayan</t>
+  </si>
+  <si>
+    <t>BatStateU-Lemery</t>
+  </si>
+  <si>
+    <t>BatStateU-Lipa</t>
+  </si>
+  <si>
+    <t>BatStateU-Lobo</t>
+  </si>
+  <si>
+    <t>BatStateU-Malvar</t>
+  </si>
+  <si>
+    <t>BatStateU-Rosario</t>
+  </si>
+  <si>
+    <t>BatStateU-San Juan</t>
+  </si>
+  <si>
+    <t>BatStateU-Nasugbu</t>
+  </si>
+  <si>
+    <t>CvSU-Indang</t>
+  </si>
+  <si>
+    <t>CvSU-Rosario</t>
+  </si>
+  <si>
+    <t>CvSU-Carmona</t>
+  </si>
+  <si>
+    <t>CvSU-Naic</t>
+  </si>
+  <si>
+    <t>CvSU-Cavite City</t>
+  </si>
+  <si>
+    <t>CvSU-Tanza</t>
+  </si>
+  <si>
+    <t>CvSU-Trece Martires</t>
+  </si>
+  <si>
+    <t>CvSU-Imus</t>
+  </si>
+  <si>
+    <t>CvSU-Silang</t>
+  </si>
+  <si>
+    <t>CvSU-Bacoor</t>
+  </si>
+  <si>
+    <t>CvSU-General Trias</t>
+  </si>
+  <si>
+    <t>PNU-Main</t>
+  </si>
+  <si>
+    <t>BulSU-Malolos</t>
+  </si>
+  <si>
+    <t>BulSU-Bustos</t>
+  </si>
+  <si>
+    <t>BulSU-Meneses</t>
+  </si>
+  <si>
+    <t>BulSU-Sarmiento</t>
+  </si>
+  <si>
+    <t>BulSU-Hagonoy</t>
+  </si>
+  <si>
+    <t>Strider</t>
+  </si>
+  <si>
+    <t>Aragorn</t>
+  </si>
+  <si>
+    <t>Greenleaf</t>
+  </si>
+  <si>
+    <t>Legolas</t>
+  </si>
+  <si>
+    <t>Gimli</t>
+  </si>
+  <si>
+    <t>Goldhair</t>
+  </si>
+  <si>
+    <t>Hornblower</t>
+  </si>
+  <si>
+    <t>Boromir</t>
+  </si>
+  <si>
+    <t>Olorien</t>
+  </si>
+  <si>
+    <t>Haldir</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Middle Earth</t>
+  </si>
+  <si>
+    <t>a.strider@gmail.com</t>
+  </si>
+  <si>
+    <t>l.greenleaf@gmail.com</t>
+  </si>
+  <si>
+    <t>g.goldhair@gmail.com</t>
+  </si>
+  <si>
+    <t>b.hornblower@gmail.com</t>
+  </si>
+  <si>
+    <t>h.olorien@gmail.com</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>School List</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +269,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -94,16 +303,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -153,14 +365,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:H1048576"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:I1048576"/>
+  <tableColumns count="9">
     <tableColumn id="8" name="Last_name"/>
     <tableColumn id="7" name="First_name"/>
     <tableColumn id="1" name="Middle_initial"/>
@@ -169,6 +384,7 @@
     <tableColumn id="4" name="Phone"/>
     <tableColumn id="5" name="Email"/>
     <tableColumn id="6" name="Birthdate" dataDxfId="0"/>
+    <tableColumn id="9" name="School List"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -461,21 +677,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="13" customWidth="1"/>
+    <col min="1" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -500,32 +718,523 @@
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2">
+        <v>9874905625</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3">
+        <v>9856473521</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4">
+        <v>9876787612</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5">
+        <v>9786453812</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6">
+        <v>9825371453</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I47" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input._x000a_Must only be 45 characters long" prompt="Text should only contain 45 characters_x000a_" sqref="D1:D1048576 G1:G1048576 F1:F1048576 E1:E1048576 A1:C1048576">
+  <dataValidations count="3">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input._x000a_Must only be 45 characters long" prompt="Text should only contain 45 characters_x000a_" sqref="A1:C1048576 E1:G1048576">
       <formula1>1</formula1>
       <formula2>45</formula2>
     </dataValidation>
     <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. _x000a_Please indicate valid date." prompt="Must be valid date" sqref="H1:H1048576">
       <formula1>40179</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="Invalid input._x000a_Must only be 45 characters long" prompt="Text should only contain 45 characters_x000a_" sqref="D1:D1048576">
+      <formula1>$I$2:$I$47</formula1>
+    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B4:AU4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AU4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
